--- a/dior_150.xlsx
+++ b/dior_150.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmonn\Documents\GitHub\Personnalite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmonnot\Desktop\Personnalite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFE08DD-A2BC-4A37-A706-139721EA1AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3686BE68-D685-4297-84C9-55864BCA6A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="480" windowWidth="12750" windowHeight="15120" xr2:uid="{063F57EF-F6A1-4158-8C88-5511C419303D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{063F57EF-F6A1-4158-8C88-5511C419303D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Dior</t>
   </si>
@@ -94,6 +94,104 @@
   </si>
   <si>
     <t>scoot2street</t>
+  </si>
+  <si>
+    <t>LouisAdams90</t>
+  </si>
+  <si>
+    <t>Ptn la sacoche cylindre dior elle est incroyable mais elle coûte 1500 😭💀</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1363620066265346052
+oximorx
+« Inspi dior » ma belle quand y’a écrit dior partout sur ton pyjama c’est pas une inspiration mais une contrefaçon 😂😂</t>
+  </si>
+  <si>
+    <t>La palette dior que j’ai commandé elle est magnifique</t>
+  </si>
+  <si>
+    <t>les dior elles sont tellement belles je peux dead</t>
+  </si>
+  <si>
+    <t>@myriamkrb Tu peux pas te proclamer pauvre avec un bon Dior dsl</t>
+  </si>
+  <si>
+    <t>younessavec2s</t>
+  </si>
+  <si>
+    <t>gusventus</t>
+  </si>
+  <si>
+    <t>tiff_blr</t>
+  </si>
+  <si>
+    <t>Dieyna221</t>
+  </si>
+  <si>
+    <t>Lordflackojodii</t>
+  </si>
+  <si>
+    <t>mhd92_</t>
+  </si>
+  <si>
+    <t>Les chemises Dior elles sont incroyables sah</t>
+  </si>
+  <si>
+    <t>SknModric</t>
+  </si>
+  <si>
+    <t>okhekha</t>
+  </si>
+  <si>
+    <t>AronaBathily</t>
+  </si>
+  <si>
+    <t>Ils ont augmenté le prix des walk n dior oblique #triste</t>
+  </si>
+  <si>
+    <t>farahxcx</t>
+  </si>
+  <si>
+    <t>yzygamer</t>
+  </si>
+  <si>
+    <t>GeeTebogo3</t>
+  </si>
+  <si>
+    <t>Dine_Dior</t>
+  </si>
+  <si>
+    <t>LeParisienVideo</t>
+  </si>
+  <si>
+    <t>chiyosix</t>
+  </si>
+  <si>
+    <t>1363343078854172672
+imatragicflower
+jremet du rouge dior sur mes levres deseches…</t>
+  </si>
+  <si>
+    <t>DiarraA11270667</t>
+  </si>
+  <si>
+    <t>1363285031704285190
+Blacknahr
+Je vais commencer par Diery Dior Ndella. Mou taggal meu seumey mame ❤️</t>
+  </si>
+  <si>
+    <t>1363343015201435648
+DiarraA11270667
+Dior aurait dû lâcher un billet à pop smoke..rip 🕊 #k.crimi</t>
+  </si>
+  <si>
+    <t>AronaSall18</t>
   </si>
 </sst>
 </file>
@@ -448,45 +546,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA2CD3F-3FDB-4687-A84B-1D3D5E35F797}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.3636639540111099E+18</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1.3635634081850501E+18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.3636872069347599E+18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1.3635634081850501E+18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3635642878522399E+18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.3635634081850501E+18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.36355401882029E+18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.36355285862543E+18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1.36344695356931E+18</v>
       </c>
     </row>
   </sheetData>
@@ -496,77 +609,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF6228E-3359-4700-8EAD-D6D842B915D7}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -576,47 +749,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4E2CCB-03B6-48CF-9A47-821CB8DF97D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.36367914626254E+18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.3635848186095401E+18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3635734435899799E+18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDEB9AA-09BF-4DA6-BEA8-595E06E45E3F}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
